--- a/data/report-templates/sony-atv.xlsx
+++ b/data/report-templates/sony-atv.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Отчет</t>
   </si>
@@ -174,17 +174,20 @@
   </si>
   <si>
     <t>{shareMobile}</t>
+  </si>
+  <si>
+    <t>{catalog}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0&quot; CENT&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="15"/>
     <col min="3" max="3" width="13.85546875" style="15" customWidth="1"/>
@@ -652,7 +655,7 @@
     <col min="17" max="21" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -677,7 +680,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +705,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -754,7 +757,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="84">
+    <row r="5" spans="1:21" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -819,7 +822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="120">
+    <row r="6" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -856,7 +859,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -881,7 +884,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -904,7 +907,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
@@ -931,7 +934,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -956,7 +959,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -979,7 +982,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1011,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1060,7 +1063,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1083,7 +1086,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1106,7 +1109,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1129,7 +1132,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1152,7 +1155,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1175,7 +1178,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1198,7 +1201,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1221,7 +1224,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1244,7 +1247,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1267,7 +1270,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1290,7 +1293,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1313,7 +1316,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1336,7 +1339,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1359,7 +1362,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1382,7 +1385,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1405,7 +1408,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1428,7 +1431,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1451,7 +1454,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1474,7 +1477,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1497,7 +1500,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1520,7 +1523,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1543,7 +1546,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1566,7 +1569,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1589,7 +1592,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1612,7 +1615,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1635,7 +1638,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1669,14 +1672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
@@ -1686,7 +1689,7 @@
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1764,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1791,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="84">
+    <row r="5" spans="1:22" ht="84" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -1895,8 +1898,11 @@
       <c r="U6" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1944,7 +1950,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
@@ -1996,7 +2002,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2019,7 +2025,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -2088,12 +2094,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
